--- a/sieu_thi_mini_bim_bim/sieu_thi_mini/FileExcel/Biểu đồ thể hiện doanh thu theo năm 2023.xlsx
+++ b/sieu_thi_mini_bim_bim/sieu_thi_mini/FileExcel/Biểu đồ thể hiện doanh thu theo năm 2023.xlsx
@@ -429,10 +429,10 @@
         <v>13</v>
       </c>
       <c r="B12" s="1">
-        <v>10000</v>
+        <v>1380000</v>
       </c>
       <c r="C12" s="1">
-        <v>200000</v>
+        <v>5251000</v>
       </c>
     </row>
     <row r="13">
